--- a/premise/data/additional_inventories/lci-battery-LFP-eol.xlsx
+++ b/premise/data/additional_inventories/lci-battery-LFP-eol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="859" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A48A54F-501F-477F-AD62-1D4FDBF0A206}"/>
   <bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="btbl4fnb" localSheetId="0">LFP_Battery_EOL!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,24 +36,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="91">
   <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>LFP_battery_cell_EoL</t>
+  </si>
+  <si>
     <t>Activity</t>
   </si>
   <si>
+    <t>treatment of used LFP battery cell, hydrometallurgical treatment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Aluminium and copper, 93.8% recovery rate. 0.820kg recovered/kg treated cell</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>RER</t>
+  </si>
+  <si>
     <t>production amount</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
+    <t>Mohr, M., J.F. Peters, M. Weil, and M. Baumann. 2020. Towards a cell-chemistry specific life cycle assessment of lithium-ion battery recycling processes. Journal of Industrial Ecology.</t>
+  </si>
+  <si>
     <t>reference product</t>
   </si>
   <si>
+    <t>non-Fe-Co-metals, from Li-ion battery, hydrometallurgical processing</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -78,235 +99,214 @@
     <t>categories</t>
   </si>
   <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
     <t>production</t>
   </si>
   <si>
+    <t>Aluminium recovery rate 93.8%. 0.0286kg recovered/kg treated cell</t>
+  </si>
+  <si>
+    <t>aluminium, wrought alloy</t>
+  </si>
+  <si>
+    <t>Copper recovery rate 93.8%. 0.00533kg recovered/kg treated cell</t>
+  </si>
+  <si>
+    <t>copper, cathode</t>
+  </si>
+  <si>
+    <t>Lithium compound recovery rate 93.6%. 0.0984kg recovered /kg treated cell</t>
+  </si>
+  <si>
+    <t>lithium carbonate</t>
+  </si>
+  <si>
+    <t>treatment of used LFP battery cell, pyrometallurgical treatment</t>
+  </si>
+  <si>
+    <t>Aluminium and copper, 93.6% recovery rate. 0.818kg recovered/kg treated cell</t>
+  </si>
+  <si>
+    <t>Aluminium recovery rate 93.6%. 0.0286kg recovered/kg treated cell</t>
+  </si>
+  <si>
+    <t>Copper recovery rate 93.6%. 0.00532kg recovered/kg treated cell</t>
+  </si>
+  <si>
+    <t>LCI data from Table S2.4 according to Mohr et al. (2020)</t>
+  </si>
+  <si>
+    <t>used LFP battery cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU 1kg </t>
+  </si>
+  <si>
+    <t>market for chemical, inorganic</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
     <t>technosphere</t>
   </si>
   <si>
+    <t>chemical, inorganic</t>
+  </si>
+  <si>
+    <t>Reagent</t>
+  </si>
+  <si>
+    <t>market for electricity, medium voltage</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>market for electricity, medium voltage</t>
-  </si>
-  <si>
     <t>electricity, medium voltage</t>
   </si>
   <si>
-    <t>RER</t>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>1kg = 1L</t>
+  </si>
+  <si>
+    <t>market for sulfuric acid</t>
+  </si>
+  <si>
+    <t>sulfuric acid</t>
+  </si>
+  <si>
+    <t>hydrated lime production, packed</t>
+  </si>
+  <si>
+    <t>hydrated lime, packed</t>
+  </si>
+  <si>
+    <t>chemical factory construction, organics</t>
+  </si>
+  <si>
+    <t>chemical factory, organics</t>
+  </si>
+  <si>
+    <t>market group for waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>market for inert waste</t>
+  </si>
+  <si>
+    <t>inert waste</t>
+  </si>
+  <si>
+    <t>market for waste gypsum</t>
+  </si>
+  <si>
+    <t>waste gypsum</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
   </si>
   <si>
     <t>cubic meter</t>
   </si>
   <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>NMVOC, non-methane volatile organic compounds</t>
+  </si>
+  <si>
+    <t>Suspended solids, unspecified</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>COD, Chemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Hydrocarbons, unspecified</t>
+  </si>
+  <si>
+    <t>Copper ion</t>
+  </si>
+  <si>
+    <t>Fluoride</t>
+  </si>
+  <si>
+    <t>Nickel II</t>
+  </si>
+  <si>
+    <t>Cobalt II</t>
+  </si>
+  <si>
+    <t>LCI data from Table S2.3 according to Mohr et al. (2020)</t>
+  </si>
+  <si>
+    <t>market for sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
     <t>sodium hydroxide, without water, in 50% solution state</t>
   </si>
   <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>market for sulfuric acid</t>
-  </si>
-  <si>
-    <t>sulfuric acid</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>treatment of wastewater, average, wastewater treatment</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>market for tap water</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>market for sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>Mohr, M., J.F. Peters, M. Weil, and M. Baumann. 2020. Towards a cell-chemistry specific life cycle assessment of lithium-ion battery recycling processes. Journal of Industrial Ecology.</t>
-  </si>
-  <si>
-    <t>non-Fe-Co-metals, from Li-ion battery, hydrometallurgical processing</t>
-  </si>
-  <si>
-    <t>aluminium, wrought alloy</t>
-  </si>
-  <si>
-    <t>copper, cathode</t>
-  </si>
-  <si>
-    <t>LCI data from Table S2.4 according to Mohr et al. (2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FU 1kg </t>
-  </si>
-  <si>
-    <t>market for chemical, inorganic</t>
-  </si>
-  <si>
-    <t>chemical, inorganic</t>
-  </si>
-  <si>
-    <t>Reagent</t>
-  </si>
-  <si>
-    <t>1kg = 1L</t>
-  </si>
-  <si>
-    <t>hydrated lime production, packed</t>
-  </si>
-  <si>
-    <t>hydrated lime, packed</t>
-  </si>
-  <si>
-    <t>chemical factory construction, organics</t>
-  </si>
-  <si>
-    <t>chemical factory, organics</t>
-  </si>
-  <si>
-    <t>market group for waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>market for inert waste</t>
-  </si>
-  <si>
-    <t>inert waste</t>
-  </si>
-  <si>
-    <t>market for waste gypsum</t>
-  </si>
-  <si>
-    <t>waste gypsum</t>
-  </si>
-  <si>
-    <t>Sulfur dioxide</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>NMVOC, non-methane volatile organic compounds</t>
-  </si>
-  <si>
-    <t>Suspended solids, unspecified</t>
-  </si>
-  <si>
-    <t>COD, Chemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t>Hydrocarbons, unspecified</t>
-  </si>
-  <si>
-    <t>Copper ion</t>
-  </si>
-  <si>
-    <t>Fluoride</t>
-  </si>
-  <si>
-    <t>Nickel II</t>
-  </si>
-  <si>
-    <t>Cobalt II</t>
-  </si>
-  <si>
-    <t>LCI data from Table S2.3 according to Mohr et al. (2020)</t>
-  </si>
-  <si>
     <t>market for copper smelting facility</t>
   </si>
   <si>
     <t>copper smelting facility</t>
   </si>
   <si>
+    <t>Particulate Matter, &lt; 2.5 um</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 10 um</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 2.5 um and &lt; 10um</t>
+  </si>
+  <si>
     <t>Chloride</t>
-  </si>
-  <si>
-    <t>Particulate Matter, &lt; 2.5 um</t>
-  </si>
-  <si>
-    <t>Particulate Matter, &gt; 10 um</t>
-  </si>
-  <si>
-    <t>Particulate Matter, &gt; 2.5 um and &lt; 10um</t>
-  </si>
-  <si>
-    <t>Aluminium and copper, 93.8% recovery rate. 0.820kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>Aluminium recovery rate 93.8%. 0.0286kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>Copper recovery rate 93.8%. 0.00533kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>Lithium compound recovery rate 93.6%. 0.0984kg recovered /kg treated cell</t>
-  </si>
-  <si>
-    <t>lithium carbonate</t>
-  </si>
-  <si>
-    <t>Aluminium and copper, 93.6% recovery rate. 0.818kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>Aluminium recovery rate 93.6%. 0.0286kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>Copper recovery rate 93.6%. 0.00532kg recovered/kg treated cell</t>
-  </si>
-  <si>
-    <t>treatment of used LFP battery cell, pyrometallurgical treatment</t>
-  </si>
-  <si>
-    <t>used LFP battery cell</t>
-  </si>
-  <si>
-    <t>treatment of used LFP battery cell, hydrometallurgical treatment</t>
-  </si>
-  <si>
-    <t>LFP_battery_cell_EoL</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,46 +702,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A7E12-3500-483E-89C2-C4378FEFD800}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="58" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="137" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="65.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="P2" s="1"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -758,12 +758,12 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -779,12 +779,12 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -800,9 +800,9 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -822,12 +822,12 @@
       <c r="O6" s="5"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -843,12 +843,12 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -864,12 +864,12 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -885,12 +885,12 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -906,9 +906,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -925,54 +925,54 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30.95">
       <c r="A13" s="6" t="str">
         <f>B3</f>
         <v>treatment of used LFP battery cell, hydrometallurgical treatment</v>
@@ -986,14 +986,14 @@
         <v>RER</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1004,7 +1004,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1021,12 +1021,12 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1043,12 +1043,12 @@
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1064,12 +1064,12 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1085,9 +1085,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -1107,12 +1107,12 @@
       <c r="O18" s="5"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1128,12 +1128,12 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A20" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1149,12 +1149,12 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1170,12 +1170,12 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1191,9 +1191,9 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1210,54 +1210,54 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30.95">
       <c r="A25" s="6" t="str">
         <f>B15</f>
         <v>treatment of used LFP battery cell, hydrometallurgical treatment</v>
@@ -1271,14 +1271,14 @@
         <v>RER</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1289,7 +1289,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1306,12 +1306,12 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A27" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1328,12 +1328,12 @@
       <c r="O27" s="5"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A28" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1349,12 +1349,12 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A29" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1370,9 +1370,9 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A30" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -1392,12 +1392,12 @@
       <c r="O30" s="5"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1413,12 +1413,12 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A32" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1434,12 +1434,12 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A33" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1455,12 +1455,12 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A34" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1476,9 +1476,9 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1495,54 +1495,54 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30.95">
       <c r="A37" s="6" t="str">
         <f>B27</f>
         <v>treatment of used LFP battery cell, hydrometallurgical treatment</v>
@@ -1556,14 +1556,14 @@
         <v>RER</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1574,12 +1574,12 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A39" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1596,12 +1596,12 @@
       <c r="O39" s="5"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A40" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1617,12 +1617,12 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A41" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1638,9 +1638,9 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A42" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -1660,12 +1660,12 @@
       <c r="O42" s="5"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A43" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1681,12 +1681,12 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A44" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1702,12 +1702,12 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A45" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1723,12 +1723,12 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A46" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1744,9 +1744,9 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A47" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1763,54 +1763,54 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="30.95">
       <c r="A49" s="6" t="str">
         <f>B39</f>
         <v>treatment of used LFP battery cell, hydrometallurgical treatment</v>
@@ -1824,14 +1824,14 @@
         <v>RER</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1842,7 +1842,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.6">
       <c r="A50" s="9"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1859,12 +1859,12 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A51" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1881,12 +1881,12 @@
       <c r="O51" s="5"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A52" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1902,12 +1902,12 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A53" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1923,9 +1923,9 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A54" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -1945,12 +1945,12 @@
       <c r="O54" s="5"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A55" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1966,12 +1966,12 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A56" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1987,12 +1987,12 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A57" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2008,12 +2008,12 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A58" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2029,9 +2029,9 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A59" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2048,54 +2048,54 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="30.95">
       <c r="A61" s="6" t="str">
         <f>B51</f>
         <v>treatment of used LFP battery cell, pyrometallurgical treatment</v>
@@ -2109,14 +2109,14 @@
         <v>RER</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2127,7 +2127,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.6">
       <c r="A62" s="9"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2144,12 +2144,12 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A63" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2166,12 +2166,12 @@
       <c r="O63" s="5"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A64" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2187,12 +2187,12 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A65" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2208,9 +2208,9 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A66" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B66" s="5">
         <v>1</v>
@@ -2230,12 +2230,12 @@
       <c r="O66" s="5"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A67" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2251,12 +2251,12 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A68" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2272,12 +2272,12 @@
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A69" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2293,12 +2293,12 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A70" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2314,9 +2314,9 @@
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2333,54 +2333,54 @@
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30.95">
       <c r="A73" s="6" t="str">
         <f>B63</f>
         <v>treatment of used LFP battery cell, pyrometallurgical treatment</v>
@@ -2394,14 +2394,14 @@
         <v>RER</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -2412,7 +2412,7 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.6">
       <c r="A74" s="9"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2429,12 +2429,12 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A75" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2451,12 +2451,12 @@
       <c r="O75" s="5"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A76" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2472,12 +2472,12 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A77" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2493,9 +2493,9 @@
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A78" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
@@ -2515,12 +2515,12 @@
       <c r="O78" s="5"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A79" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2536,12 +2536,12 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A80" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2557,12 +2557,12 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A81" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2578,12 +2578,12 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A82" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2599,9 +2599,9 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A83" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2618,54 +2618,54 @@
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H84" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="30.95">
       <c r="A85" s="6" t="str">
         <f>B75</f>
         <v>treatment of used LFP battery cell, pyrometallurgical treatment</v>
@@ -2679,14 +2679,14 @@
         <v>RER</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -2697,12 +2697,12 @@
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="87" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A87" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2720,12 +2720,12 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="11"/>
     </row>
-    <row r="88" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A88" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2743,18 +2743,18 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="11"/>
     </row>
-    <row r="89" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A89" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A90" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B90" s="11">
         <v>-1</v>
@@ -2762,32 +2762,32 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
     </row>
-    <row r="91" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A91" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
     </row>
-    <row r="92" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A92" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
     </row>
-    <row r="93" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A93" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2803,73 +2803,73 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A94" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
     </row>
-    <row r="95" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A95" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
     </row>
-    <row r="96" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H96" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
     </row>
-    <row r="97" spans="1:17" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="12" customFormat="1" ht="30.95">
       <c r="A97" s="13" t="str">
         <f>B87</f>
         <v>treatment of used LFP battery cell, hydrometallurgical treatment</v>
@@ -2887,14 +2887,14 @@
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G97" s="11" t="str">
         <f>B92</f>
         <v>used LFP battery cell</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
@@ -2904,28 +2904,28 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A98" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B98" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
@@ -2935,25 +2935,25 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
     </row>
-    <row r="99" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A99" s="13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B99" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -2966,28 +2966,28 @@
       <c r="P99" s="10"/>
       <c r="Q99" s="11"/>
     </row>
-    <row r="100" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A100" s="13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B100" s="14">
         <v>0.72</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
@@ -2999,25 +2999,25 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="11"/>
     </row>
-    <row r="101" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A101" s="13" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B101" s="16">
         <v>0.21299999999999999</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -3030,25 +3030,25 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="11"/>
     </row>
-    <row r="102" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A102" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B102" s="15">
         <v>0.11600000000000001</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -3061,25 +3061,25 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="11"/>
     </row>
-    <row r="103" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A103" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B103" s="14">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -3092,25 +3092,25 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="11"/>
     </row>
-    <row r="104" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A104" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B104" s="17">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -3123,25 +3123,25 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="11"/>
     </row>
-    <row r="105" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A105" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B105" s="17">
         <v>-0.20200000000000001</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -3154,25 +3154,25 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="11"/>
     </row>
-    <row r="106" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A106" s="13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B106" s="17">
         <v>-0.33900000000000002</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -3185,26 +3185,26 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="11"/>
     </row>
-    <row r="107" spans="1:17" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="12" customFormat="1" ht="30.95">
       <c r="A107" s="13" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B107" s="14">
         <f>-0.000337</f>
         <v>-3.3700000000000001E-4</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -3217,22 +3217,22 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="11"/>
     </row>
-    <row r="108" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A108" s="13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B108" s="14">
         <v>4.5000000000000001E-6</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -3246,22 +3246,22 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="11"/>
     </row>
-    <row r="109" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A109" s="13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B109" s="14">
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -3275,22 +3275,22 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="11"/>
     </row>
-    <row r="110" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A110" s="13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B110" s="14">
         <v>1.2E-5</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -3304,22 +3304,22 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="11"/>
     </row>
-    <row r="111" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A111" s="13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B111" s="14">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -3333,22 +3333,22 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="11"/>
     </row>
-    <row r="112" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A112" s="13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B112" s="14">
         <v>1E-8</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -3362,22 +3362,22 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="11"/>
     </row>
-    <row r="113" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A113" s="13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B113" s="14">
         <v>1.6699999999999999E-5</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -3391,22 +3391,22 @@
       <c r="P113" s="10"/>
       <c r="Q113" s="11"/>
     </row>
-    <row r="114" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A114" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B114" s="14">
         <v>2.9999999999999997E-8</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -3420,22 +3420,22 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="11"/>
     </row>
-    <row r="115" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A115" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B115" s="14">
         <v>1.6699999999999999E-5</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -3449,22 +3449,22 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="11"/>
     </row>
-    <row r="116" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A116" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B116" s="14">
         <v>1.6699999999999999E-5</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -3478,12 +3478,12 @@
       <c r="P116" s="10"/>
       <c r="Q116" s="11"/>
     </row>
-    <row r="118" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A118" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -3501,12 +3501,12 @@
       <c r="P118" s="10"/>
       <c r="Q118" s="11"/>
     </row>
-    <row r="119" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A119" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -3524,18 +3524,18 @@
       <c r="P119" s="10"/>
       <c r="Q119" s="11"/>
     </row>
-    <row r="120" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A120" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A121" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B121" s="11">
         <v>-1</v>
@@ -3543,32 +3543,32 @@
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
     </row>
-    <row r="122" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A122" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
     </row>
-    <row r="123" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A123" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
     </row>
-    <row r="124" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A124" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3584,73 +3584,73 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A125" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P125" s="12"/>
       <c r="Q125" s="12"/>
     </row>
-    <row r="126" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A126" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
     </row>
-    <row r="127" spans="1:17" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" s="11" customFormat="1" ht="15.6">
       <c r="A127" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H127" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M127" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
     </row>
-    <row r="128" spans="1:17" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" s="12" customFormat="1" ht="30.95">
       <c r="A128" s="13" t="str">
         <f>B118</f>
         <v>treatment of used LFP battery cell, pyrometallurgical treatment</v>
@@ -3668,14 +3668,14 @@
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G128" s="11" t="str">
         <f>B123</f>
         <v>used LFP battery cell</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="11"/>
@@ -3685,25 +3685,25 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:17" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" s="12" customFormat="1" ht="30.95">
       <c r="A129" s="13" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B129" s="14">
         <v>0.21</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -3716,25 +3716,25 @@
       <c r="P129" s="10"/>
       <c r="Q129" s="11"/>
     </row>
-    <row r="130" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A130" s="13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B130" s="14">
         <v>0.8</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -3747,28 +3747,28 @@
       <c r="P130" s="10"/>
       <c r="Q130" s="11"/>
     </row>
-    <row r="131" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A131" s="13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B131" s="14">
         <v>1</v>
       </c>
       <c r="C131" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I131" s="11"/>
       <c r="J131" s="11"/>
@@ -3780,25 +3780,25 @@
       <c r="P131" s="10"/>
       <c r="Q131" s="11"/>
     </row>
-    <row r="132" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A132" s="13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B132" s="14">
         <v>5.0000000000000003E-10</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -3811,25 +3811,25 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="11"/>
     </row>
-    <row r="133" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A133" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B133" s="17">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -3842,26 +3842,26 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="11"/>
     </row>
-    <row r="134" spans="1:17" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" s="12" customFormat="1" ht="30.95">
       <c r="A134" s="13" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B134" s="14">
         <f>-1/1000</f>
         <v>-1E-3</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -3874,22 +3874,22 @@
       <c r="P134" s="10"/>
       <c r="Q134" s="11"/>
     </row>
-    <row r="135" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A135" s="13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B135" s="14">
         <v>4.7999999999999998E-6</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -3903,22 +3903,22 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="11"/>
     </row>
-    <row r="136" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A136" s="13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B136" s="14">
         <v>1E-4</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -3932,22 +3932,22 @@
       <c r="P136" s="10"/>
       <c r="Q136" s="11"/>
     </row>
-    <row r="137" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A137" s="13" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B137" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -3961,22 +3961,22 @@
       <c r="P137" s="10"/>
       <c r="Q137" s="11"/>
     </row>
-    <row r="138" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A138" s="13" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B138" s="14">
         <v>9.3599999999999998E-5</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -3990,22 +3990,22 @@
       <c r="P138" s="10"/>
       <c r="Q138" s="11"/>
     </row>
-    <row r="139" spans="1:17" s="12" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" s="12" customFormat="1" ht="15.6">
       <c r="A139" s="13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B139" s="14">
         <v>0.04</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
